--- a/medicine/Enfance/Pôle_fiction/Pôle_fiction.xlsx
+++ b/medicine/Enfance/Pôle_fiction/Pôle_fiction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%B4le_fiction</t>
+          <t>Pôle_fiction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pôle fiction est une collection de littérature d'enfance et de jeunesse en poche aux éditions Gallimard Jeunesse, qui s'adresse plus particulièrement aux adolescents et aux jeunes adultes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%B4le_fiction</t>
+          <t>Pôle_fiction</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection est créée fin juin 2010[1],[2]. Elle publie dans deux grandes directions : de la chick lit d'une part, du fantastique et de la science-fiction de l'autre[2].
-Les titres sont des rééditions tirées des collections Hors-Série et Scripto[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection est créée fin juin 2010,. Elle publie dans deux grandes directions : de la chick lit d'une part, du fantastique et de la science-fiction de l'autre.
+Les titres sont des rééditions tirées des collections Hors-Série et Scripto. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%B4le_fiction</t>
+          <t>Pôle_fiction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste sélective de titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Terence Blacker, Garçon ou Fille
